--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_60.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_60.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jun Watanabe</t>
+          <t>Ryohei Yamamoto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
